--- a/biology/Zoologie/Gobemouche_de_Ceylan/Gobemouche_de_Ceylan.xlsx
+++ b/biology/Zoologie/Gobemouche_de_Ceylan/Gobemouche_de_Ceylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumyias sordidus
 Le Gobemouche de Ceylan (Eumyias sordidus) est une espèce d'oiseaux de la famille des Muscicapidae. Cet oiseau est endémique des montagnes du centre du Sri Lanka.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eumyias sordidus a été décrite pour la première fois en 1870 par l'ornithologue britannique Arthur Hay, vicomte de Walden[1] (1824-1878) sous le protonyme Glaucomyias sordida[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eumyias sordidus a été décrite pour la première fois en 1870 par l'ornithologue britannique Arthur Hay, vicomte de Walden (1824-1878) sous le protonyme Glaucomyias sordida.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Arthur, Viscount Walden, « Descriptions of some new species of birds from Southern Asia », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 5, no 27,‎ 1870, p. 218-220 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222937008696141, lire en ligne)</t>
         </is>
